--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9da5768798d098/Harvard/Sophmore/Spring/A. CS124/CS124-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738D6F3B-1D4E-4B4E-9D4C-19397A874DA3}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7760E72E-9DBD-4F7D-9E80-03FA0DCCEE1D}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Dim 1" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,16 +126,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -238,28 +244,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C58A119A-EF1A-42CC-BAFE-28A5519322EB}" name="Table13" displayName="Table13" ref="B3:F63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C58A119A-EF1A-42CC-BAFE-28A5519322EB}" name="Table13" displayName="Table13" ref="B3:F63" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B3:F63" xr:uid="{C58A119A-EF1A-42CC-BAFE-28A5519322EB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5ED73DD7-DE97-4158-B35C-94DF9A1103D6}" name="Num points" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{91476B41-D7EF-4225-9799-A62D26AD0DA7}" name="Dimension" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{12A188E7-49BB-4E44-8443-C5889BA396E8}" name="Output" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{5DE9B7A1-2663-4B42-B25E-E709B369F36A}" name="Trial number" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C23680BA-21F2-4448-814F-664A761857D2}" name="Time" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{5ED73DD7-DE97-4158-B35C-94DF9A1103D6}" name="Num points" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{91476B41-D7EF-4225-9799-A62D26AD0DA7}" name="Dimension" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{12A188E7-49BB-4E44-8443-C5889BA396E8}" name="Output" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{5DE9B7A1-2663-4B42-B25E-E709B369F36A}" name="Trial number" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C23680BA-21F2-4448-814F-664A761857D2}" name="Time" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E91F08EB-15BF-4495-AA54-634F8FF12B78}" name="Table1" displayName="Table1" ref="B2:F63" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E91F08EB-15BF-4495-AA54-634F8FF12B78}" name="Table1" displayName="Table1" ref="B2:F63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B2:F63" xr:uid="{E91F08EB-15BF-4495-AA54-634F8FF12B78}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B90BE400-1EF3-4B58-B374-FCC85E6A2C50}" name="Num points" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{C6BD413B-97D7-4AF5-915C-3B5E4F50C27B}" name="Dimension" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{D19086EE-B153-40CA-8DAE-6AD79AC34F60}" name="Output" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{A71962CE-E240-485F-817C-28A9B5E758A2}" name="Trial number" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{13634A39-BD4A-417B-8A65-EFCCC1B4C8DD}" name="Time" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{B90BE400-1EF3-4B58-B374-FCC85E6A2C50}" name="Num points" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{C6BD413B-97D7-4AF5-915C-3B5E4F50C27B}" name="Dimension" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{D19086EE-B153-40CA-8DAE-6AD79AC34F60}" name="Output" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A71962CE-E240-485F-817C-28A9B5E758A2}" name="Trial number" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{13634A39-BD4A-417B-8A65-EFCCC1B4C8DD}" name="Time" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,655 +598,682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1BDCA0-94AB-4AE3-8011-063984309417}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="17.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.979186</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.98504599999999998</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.99526999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.97353999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>128</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.994232</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>256</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.99056999999999995</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>256</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.98706000000000005</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>256</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.99862700000000004</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>256</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.99862700000000004</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>256</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.991699</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.99633799999999995</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>512</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.98730399999999996</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>512</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.99795500000000004</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>512</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.99795500000000004</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>512</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.99688600000000005</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1024</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.99874799999999997</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1024</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.99886799999999998</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1024</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.99938700000000003</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1024</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.99935700000000005</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1024</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.99938700000000003</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2048</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.99898799999999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2048</v>
       </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.99917199999999995</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2048</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.99929500000000004</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>2048</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.99926099999999995</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2048</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.99938499999999997</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4096</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.99950600000000001</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>4096</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>0.99870599999999998</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4096</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
         <v>0.99983599999999995</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>4096</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.99983599999999995</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>4096</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>0.99986399999999998</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8192</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.99989600000000001</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>8192</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
         <v>0.99992599999999998</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>8192</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>8192</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.99980899999999995</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>8192</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
         <v>0.99980199999999997</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>16384</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.99968599999999996</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>16384</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
         <v>0.99995400000000001</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>16384</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.99986299999999995</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>16384</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
         <v>0.99995599999999996</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>16384</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.99992499999999995</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>32768</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.99996200000000002</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>32768</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
         <v>0.99999199999999999</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>32768</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>0.99995599999999996</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>32768</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>32768</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.99992800000000004</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>65536</v>
       </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
         <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>65536</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.99995999999999996</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>65536</v>
       </c>
-      <c r="C51" s="2">
-        <v>1</v>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>65536</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.99995699999999998</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>65536</v>
       </c>
-      <c r="C53" s="2">
-        <v>1</v>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.99995599999999996</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>131072</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>131072</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>131072</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.99998500000000001</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>131072</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.999996</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>131072</v>
       </c>
-      <c r="C58" s="2">
-        <v>1</v>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.999996</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>262144</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>262144</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>262144</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>262144</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>262144</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1260,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B58CA-6085-4D62-A028-1C980CFC9E5E}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -1271,771 +1304,787 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
         <v>7.5890110000000002</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>7.5187220000000003</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <v>7.5598510000000001</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>7.6154919999999997</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>7.2969460000000002</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>256</v>
       </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
         <v>11.077892</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>256</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>10.604752</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>256</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>10.561726999999999</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>256</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
         <v>10.686709</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>256</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
         <v>10.453925999999999</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>512</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>15.356678</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
         <v>14.814192</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>512</v>
       </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
         <v>15.146169</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>512</v>
       </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
         <v>15.066515000000001</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>512</v>
       </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>15.013754</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1024</v>
       </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>20.961193000000002</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1024</v>
       </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <v>21.195736</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1024</v>
       </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
         <v>20.938569999999999</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1024</v>
       </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
         <v>21.426438999999998</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1024</v>
       </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
         <v>20.861350999999999</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2048</v>
       </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
         <v>29.565764999999999</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2048</v>
       </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
         <v>29.761210999999999</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2048</v>
       </c>
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
         <v>29.627016000000001</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2048</v>
       </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
         <v>29.484895999999999</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>2048</v>
       </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <v>29.536638</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>4096</v>
       </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
         <v>41.787757999999997</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4096</v>
       </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
         <v>41.930045999999997</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>4096</v>
       </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
         <v>41.578014000000003</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4096</v>
       </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
         <v>41.833663999999999</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>4096</v>
       </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
         <v>42.094326000000002</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>8192</v>
       </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>58.852291000000001</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8192</v>
       </c>
-      <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>58.997501</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>8192</v>
       </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>58.646056999999999</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>8192</v>
       </c>
-      <c r="C36" s="2">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>58.642001999999998</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>8192</v>
       </c>
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>58.814109999999999</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>16384</v>
       </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>83.204689000000002</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>16384</v>
       </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>83.078781000000006</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>16384</v>
       </c>
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>83.339095999999998</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>16384</v>
       </c>
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
         <v>83.198166000000001</v>
       </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>16384</v>
       </c>
-      <c r="C42" s="2">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>32768</v>
       </c>
-      <c r="C43" s="2">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>32768</v>
       </c>
-      <c r="C44" s="2">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>32768</v>
       </c>
-      <c r="C45" s="2">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
         <v>117.33820299999999</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>32768</v>
       </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
         <v>117.42409499999999</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>32768</v>
       </c>
-      <c r="C47" s="2">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
         <v>117.304306</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>65536</v>
       </c>
-      <c r="C48" s="2">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>65536</v>
       </c>
-      <c r="C49" s="2">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>65536</v>
       </c>
-      <c r="C50" s="2">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>65536</v>
       </c>
-      <c r="C51" s="2">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>65536</v>
       </c>
-      <c r="C52" s="2">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>131072</v>
       </c>
-      <c r="C53" s="2">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
         <v>234.77619899999999</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>131072</v>
       </c>
-      <c r="C54" s="2">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>131072</v>
       </c>
-      <c r="C55" s="2">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>131072</v>
       </c>
-      <c r="C56" s="2">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>131072</v>
       </c>
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>262144</v>
       </c>
-      <c r="C58" s="2">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
         <v>331.14349399999998</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>262144</v>
       </c>
-      <c r="C59" s="2">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>262144</v>
       </c>
-      <c r="C60" s="2">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>262144</v>
       </c>
-      <c r="C61" s="2">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>262144</v>
       </c>
-      <c r="C62" s="2">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2053,658 +2102,658 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE35272-887C-4BCA-9730-4FEC6E41DD03}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="17.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>18.249410999999998</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>18.061060000000001</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
         <v>17.140604</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>17.713892000000001</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>128</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
         <v>17.841464999999999</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>256</v>
       </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
         <v>27.970533</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>256</v>
       </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
         <v>28.202369999999998</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>256</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
         <v>27.233270999999998</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>256</v>
       </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
         <v>28.113195000000001</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>256</v>
       </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
         <v>27.971862999999999</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
         <v>43.644984999999998</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>512</v>
       </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>43.334702</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>512</v>
       </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
         <v>44.300865000000002</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>512</v>
       </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
         <v>43.390090999999998</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>512</v>
       </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
         <v>43.929478000000003</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1024</v>
       </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
         <v>68.186286999999993</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1024</v>
       </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
         <v>68.574462999999994</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1024</v>
       </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
         <v>68.426040999999998</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1024</v>
       </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
         <v>68.279114000000007</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1024</v>
       </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
         <v>68.582381999999996</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2048</v>
       </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
         <v>106.893394</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2048</v>
       </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
         <v>108.016289</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2048</v>
       </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
         <v>107.58203899999999</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>2048</v>
       </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
         <v>107.381989</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2048</v>
       </c>
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
         <v>107.161209</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4096</v>
       </c>
-      <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
         <v>168.275116</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>4096</v>
       </c>
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
         <v>168.54754600000001</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4096</v>
       </c>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
         <v>168.43019100000001</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>4096</v>
       </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
         <v>168.706436</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>4096</v>
       </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
         <v>169.47470100000001</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8192</v>
       </c>
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
         <v>267.12481700000001</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>8192</v>
       </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
         <v>268.20358299999998</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>8192</v>
       </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
         <v>267.76400799999999</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>8192</v>
       </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
         <v>268.29244999999997</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>8192</v>
       </c>
-      <c r="C38" s="2">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
         <v>267.67666600000001</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>16384</v>
       </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
         <v>422.48126200000002</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>16384</v>
       </c>
-      <c r="C40" s="2">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
         <v>423.23507699999999</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>16384</v>
       </c>
-      <c r="C41" s="2">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
         <v>421.99588</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>16384</v>
       </c>
-      <c r="C42" s="2">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
         <v>422.049103</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>16384</v>
       </c>
-      <c r="C43" s="2">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
         <v>421.62243699999999</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>32768</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>32768</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>32768</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>32768</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>32768</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>65536</v>
       </c>
-      <c r="C49" s="2">
-        <v>3</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
         <v>1058.169067</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>65536</v>
       </c>
-      <c r="C50" s="2">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
         <v>1059.307495</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>65536</v>
       </c>
-      <c r="C51" s="2">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
         <v>1058.661499</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>65536</v>
       </c>
-      <c r="C52" s="2">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
         <v>1060.0708010000001</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>65536</v>
       </c>
-      <c r="C53" s="2">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
         <v>1059.9060059999999</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>131072</v>
       </c>
-      <c r="C54" s="2">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
         <v>1677.4357910000001</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>131072</v>
       </c>
-      <c r="C55" s="2">
-        <v>3</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
         <v>1675.3885499999999</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>131072</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>131072</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>131072</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>262144</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>262144</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>262144</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>262144</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>262144</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2723,517 +2772,523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD9678-EE97-4F1F-9CCB-F22CFD3A5F42}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="17.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>29.018553000000001</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>128</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>256</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>256</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>256</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>256</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>256</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>512</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>512</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>512</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>512</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1024</v>
       </c>
-      <c r="C19" s="2">
-        <v>4</v>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>129.459</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1024</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1024</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1024</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1024</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2048</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2048</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2048</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>2048</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2048</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4096</v>
       </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3"/>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>4096</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4096</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>4096</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>4096</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8192</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>8192</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>8192</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>8192</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>8192</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>16384</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>16384</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>16384</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>16384</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>16384</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>32768</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>32768</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>32768</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>32768</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>32768</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>65536</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>65536</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>65536</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>65536</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>65536</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>131072</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>131072</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>131072</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>131072</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>131072</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>262144</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>262144</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>262144</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>262144</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>262144</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>4</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9da5768798d098/Harvard/Sophmore/Spring/A. CS124/CS124-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7760E72E-9DBD-4F7D-9E80-03FA0DCCEE1D}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA4E256-7B0E-477D-A4DB-46F6981DB3B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
   </bookViews>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1BDCA0-94AB-4AE3-8011-063984309417}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,6 +1243,9 @@
       </c>
       <c r="C59" s="1">
         <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.99999800000000005</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -1293,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B58CA-6085-4D62-A028-1C980CFC9E5E}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -2102,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE35272-887C-4BCA-9730-4FEC6E41DD03}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,6 +2726,9 @@
       </c>
       <c r="C59" s="1">
         <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2658.3466800000001</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -2772,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD9678-EE97-4F1F-9CCB-F22CFD3A5F42}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>4096</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>8192</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>8192</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>8192</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>8192</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>8192</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>16384</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>16384</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>16384</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>16384</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>16384</v>
       </c>
@@ -3132,31 +3138,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>32768</v>
       </c>
       <c r="C44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="1">
+        <v>1689.7092290000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>32768</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="1">
+        <v>1689.863159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>32768</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="1">
+        <v>1691.2054439999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>32768</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>32768</v>
       </c>
@@ -3172,15 +3187,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="1">
+        <v>2825.0258789999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -3188,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
@@ -3212,15 +3230,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="1">
+        <v>4733.6245120000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -3228,7 +3249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
@@ -3236,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
@@ -3244,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
@@ -3252,15 +3273,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
       <c r="C59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="1">
+        <v>7966.826172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -3268,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -3276,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -3284,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>262144</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9da5768798d098/Harvard/Sophmore/Spring/A. CS124/CS124-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA4E256-7B0E-477D-A4DB-46F6981DB3B8}"/>
+  <xr:revisionPtr revIDLastSave="582" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61244265-EA49-488C-B6EE-CEF41AA47AE0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Dim 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Dim 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Dim 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Dim 4" sheetId="4" r:id="rId4"/>
+    <sheet name="New Dim 1" sheetId="6" r:id="rId2"/>
+    <sheet name="Averages" sheetId="5" r:id="rId3"/>
+    <sheet name="Dim 2" sheetId="1" r:id="rId4"/>
+    <sheet name="Dim 3" sheetId="3" r:id="rId5"/>
+    <sheet name="Dim 4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>Num points</t>
   </si>
@@ -64,6 +66,27 @@
   </si>
   <si>
     <t>4 Dimension Results</t>
+  </si>
+  <si>
+    <t>Numpoints</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>1 dimension</t>
+  </si>
+  <si>
+    <t>2 dimension</t>
+  </si>
+  <si>
+    <t>3 dimension</t>
+  </si>
+  <si>
+    <t>4 dimension</t>
   </si>
 </sst>
 </file>
@@ -104,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,12 +144,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,12 +174,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="55">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -243,21 +361,3149 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dimension Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Averages!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.700475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.814992999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.918115999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.155830000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.666778999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.711098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.976452000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.117874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.520584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165.97882100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>234.73711559999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>331.47530133333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBF5-408B-8F5F-314B9C573DCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2104813088"/>
+        <c:axId val="2104813920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2104813088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104813920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2104813920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104813088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>3 Dimension</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$J$3:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$K$3:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17.715696000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.462893999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.331032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.404433999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.391457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169.49121099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.151611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>422.43881199999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668.57605000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1059.2229735999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1677.2411134000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2658.3466800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76EB-49FE-93D8-457BFA76B566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2102258160"/>
+        <c:axId val="2102259408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2102258160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102259408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2102259408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102258160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10827518436872764"/>
+                  <c:y val="6.8756111368431885E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$N$3:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$O$3:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28.515651999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.177909999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.498199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.05294799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216.677155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361.40902699999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>604.38012700000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1007.744995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1687.0836179999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2825.0258789999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4733.6245120000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7966.826172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B8B-4AAB-9A82-19AE1587E8DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2106150240"/>
+        <c:axId val="2106148992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2106150240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106148992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2106148992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106150240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>629479</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15C7D8A-F6AB-4A19-ACAB-DD4522974F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7644FA-0887-48E7-AB2E-581503A609B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441959</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF5B2BB-2511-4249-B535-367C7647DE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C58A119A-EF1A-42CC-BAFE-28A5519322EB}" name="Table13" displayName="Table13" ref="B3:F63" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C58A119A-EF1A-42CC-BAFE-28A5519322EB}" name="Table13" displayName="Table13" ref="B3:F63" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="B3:F63" xr:uid="{C58A119A-EF1A-42CC-BAFE-28A5519322EB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5ED73DD7-DE97-4158-B35C-94DF9A1103D6}" name="Num points" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{91476B41-D7EF-4225-9799-A62D26AD0DA7}" name="Dimension" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{12A188E7-49BB-4E44-8443-C5889BA396E8}" name="Output" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{5DE9B7A1-2663-4B42-B25E-E709B369F36A}" name="Trial number" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{C23680BA-21F2-4448-814F-664A761857D2}" name="Time" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{5ED73DD7-DE97-4158-B35C-94DF9A1103D6}" name="Num points" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{91476B41-D7EF-4225-9799-A62D26AD0DA7}" name="Dimension" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{12A188E7-49BB-4E44-8443-C5889BA396E8}" name="Output" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{5DE9B7A1-2663-4B42-B25E-E709B369F36A}" name="Trial number" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{C23680BA-21F2-4448-814F-664A761857D2}" name="Time" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{09B3DEEE-C231-49C9-B5B7-A58A4A367037}" name="Table1310" displayName="Table1310" ref="B3:F63" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="B3:F63" xr:uid="{09B3DEEE-C231-49C9-B5B7-A58A4A367037}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{99E5EB26-93AE-4542-9BF2-7326EE380558}" name="Num points" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{A1E0FCFD-020E-469A-9DD8-327AE7F5E415}" name="Dimension" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{5B80CED3-71D7-407A-A602-36F4A525A90D}" name="Output" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{B0A050C9-2642-433F-A128-2F3BC78887AC}" name="Trial number" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{A31A4B1D-49B3-4A3A-93D8-E0B206B939E2}" name="Time" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{90EE5731-186A-4F3F-BAF5-4F214D7D0E40}" name="Table5" displayName="Table5" ref="B2:D14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="B2:D14" xr:uid="{90EE5731-186A-4F3F-BAF5-4F214D7D0E40}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E71876C8-3E74-48E0-9108-2AF1C3433104}" name="Numpoints" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{E203327D-6191-4D67-9028-C7E38B43B5DB}" name="Average" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{3B67B5D4-4920-49B7-807D-A322DC187B26}" name="Trials" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{424AED34-2E39-4124-B207-8F62AFC01770}" name="Table57" displayName="Table57" ref="F2:H14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="F2:H14" xr:uid="{424AED34-2E39-4124-B207-8F62AFC01770}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9B2E1115-335F-4AC5-96C9-7E73E84F155C}" name="Numpoints" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{019A377E-F8F0-4A76-BB48-BF519FE9F0AD}" name="Average" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{CE6EE336-D89D-44CD-B092-8080A76F0CD6}" name="Trials" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5F1A34FD-98C7-40A6-82CD-FBFBB0A308BE}" name="Table58" displayName="Table58" ref="J2:L14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="J2:L14" xr:uid="{5F1A34FD-98C7-40A6-82CD-FBFBB0A308BE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{643D8BC6-EE33-4805-BC8E-57B424C9B497}" name="Numpoints" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{6EAF2620-B229-4A19-9611-938501C1749A}" name="Average" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{1A4C7DEE-E9BA-40B5-9B3D-A76D6AC2D06A}" name="Trials" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{ADBA61F4-3FC9-4AC6-8817-EFD34F76385C}" name="Table59" displayName="Table59" ref="N2:P14" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="N2:P14" xr:uid="{ADBA61F4-3FC9-4AC6-8817-EFD34F76385C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7989E9DC-C864-4A45-8F07-3A49B692C76A}" name="Numpoints" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{024B51E3-ACEC-4611-A158-4C3994EAF0C9}" name="Average" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B4F14118-A758-4735-817A-FE5E2E6A979C}" name="Trials" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E91F08EB-15BF-4495-AA54-634F8FF12B78}" name="Table1" displayName="Table1" ref="B2:F63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B2:F63" xr:uid="{E91F08EB-15BF-4495-AA54-634F8FF12B78}"/>
   <tableColumns count="5">
@@ -271,7 +3517,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3187CCE4-13DE-4D9F-BC0E-0E172A3957D3}" name="Table134" displayName="Table134" ref="B3:F63" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B3:F63" xr:uid="{3187CCE4-13DE-4D9F-BC0E-0E172A3957D3}"/>
   <tableColumns count="5">
@@ -285,7 +3531,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3B8350C7-E5F8-48D8-BCDB-B0EA19D30AB7}" name="Table1345" displayName="Table1345" ref="B3:F63" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B3:F63" xr:uid="{3B8350C7-E5F8-48D8-BCDB-B0EA19D30AB7}"/>
   <tableColumns count="5">
@@ -598,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1BDCA0-94AB-4AE3-8011-063984309417}">
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,11 +4539,1389 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2BED7A-2D85-430F-8A6C-06DB00F813B7}">
+  <dimension ref="B1:G64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0449539999999999</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.148747</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.256783</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.2715540000000001</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.126347</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>256</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0651569999999999</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>256</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1500589999999999</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>256</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0785849999999999</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>256</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.155645</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>256</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.1955009999999999</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.180701</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>512</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2647790000000001</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>512</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.2692650000000001</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>512</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.164709</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>512</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.241249</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.1731</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.1758150000000001</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1467320000000001</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.192509</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.1058669999999999</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.1994659999999999</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.176426</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.1537200000000001</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.143097</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.0948830000000001</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.132331</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.142188</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1144780000000001</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.15879</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.151313</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>8192</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.102449</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>8192</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.0930500000000001</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>8192</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.0669569999999999</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>8192</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0855429999999999</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>8192</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.092867</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.97955400000000004</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.959565</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.977051</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.95431600000000005</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.95404100000000003</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.73962499999999998</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.74957300000000004</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.75341800000000003</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.74374399999999996</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.74526999999999999</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.36776799999999998</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.36837799999999998</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.37060599999999999</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.36981199999999997</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.36969000000000002</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>131072</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7.9772999999999997E-2</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>131072</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7.8216999999999995E-2</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>131072</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.6905000000000001E-2</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>131072</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>7.5653999999999999E-2</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>131072</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7.5745000000000007E-2</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>262144</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>262144</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>262144</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>262144</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>262144</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC76BE6-E0EC-48A1-BFC7-00C31D4605D6}">
+  <dimension ref="B1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="16" width="12.21875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.2111449999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7.700475</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>128</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17.715696000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>128</v>
+      </c>
+      <c r="O3" s="1">
+        <v>28.515651999999999</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.1289899999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>256</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10.814992999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>256</v>
+      </c>
+      <c r="K4" s="1">
+        <v>27.462893999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>256</v>
+      </c>
+      <c r="O4" s="1">
+        <v>47.177909999999997</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>512</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.2241409999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>512</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14.918115999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>512</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43.331032</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>512</v>
+      </c>
+      <c r="O5" s="1">
+        <v>78.498199</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.1588050000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G6" s="1">
+        <v>21.155830000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="K6" s="1">
+        <v>68.404433999999995</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O6" s="1">
+        <v>130.05294799999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.153518</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G7" s="1">
+        <v>29.666778999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2048</v>
+      </c>
+      <c r="K7" s="1">
+        <v>107.391457</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2048</v>
+      </c>
+      <c r="O7" s="1">
+        <v>216.677155</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4096</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.1398200000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4096</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41.711098</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4096</v>
+      </c>
+      <c r="K8" s="1">
+        <v>169.49121099999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4096</v>
+      </c>
+      <c r="O8" s="1">
+        <v>361.40902699999998</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0881730000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="G9" s="1">
+        <v>58.976452000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="K9" s="1">
+        <v>267.151611</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="O9" s="1">
+        <v>604.38012700000002</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>16384</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.96490500000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16384</v>
+      </c>
+      <c r="G10" s="1">
+        <v>83.117874</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>16384</v>
+      </c>
+      <c r="K10" s="1">
+        <v>422.43881199999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>16384</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1007.744995</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>32768</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.74632600000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>32768</v>
+      </c>
+      <c r="G11" s="1">
+        <v>117.520584</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>32768</v>
+      </c>
+      <c r="K11" s="1">
+        <v>668.57605000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>32768</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1687.0836179999999</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.369251</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>65536</v>
+      </c>
+      <c r="G12" s="1">
+        <v>165.97882100000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>65536</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1059.2229735999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>65536</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2825.0258789999998</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>131072</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.7258999999999994E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>131072</v>
+      </c>
+      <c r="G13" s="1">
+        <v>234.73711559999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>131072</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1677.2411134000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>131072</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4733.6245120000003</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>262144</v>
+      </c>
+      <c r="F14" s="1">
+        <v>262144</v>
+      </c>
+      <c r="G14" s="1">
+        <v>331.47530133333333</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>262144</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2658.3466800000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>262144</v>
+      </c>
+      <c r="O14" s="1">
+        <v>7966.826172</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B58CA-6085-4D62-A028-1C980CFC9E5E}">
-  <dimension ref="B1:F63"/>
+  <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,7 +6472,9 @@
       <c r="C42" s="1">
         <v>2</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>83.143967000000004</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
@@ -1859,7 +6485,9 @@
       <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>117.65782900000001</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
@@ -1870,7 +6498,9 @@
       <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1">
+        <v>117.292168</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
@@ -1920,55 +6550,65 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1">
+        <v>166.09356700000001</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1">
+        <v>165.788712</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>165.93551600000001</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>166.07023599999999</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>166.00608800000001</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>131072</v>
       </c>
@@ -1981,51 +6621,63 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1">
+        <v>234.65271000000001</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f>SUM(D53:D57)/5</f>
+        <v>234.73711559999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>234.602814</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1">
+        <v>234.830521</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1">
+        <v>234.82333399999999</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>262144</v>
       </c>
@@ -2038,29 +6690,37 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>331.48709100000002</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f>SUM(D58:D60)/3</f>
+        <v>331.47530133333333</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1">
+        <v>331.79531900000001</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -2071,7 +6731,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -2082,7 +6742,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2101,12 +6761,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE35272-887C-4BCA-9730-4FEC6E41DD03}">
-  <dimension ref="B2:G63"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,7 +7279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -2629,8 +7289,12 @@
       <c r="D49" s="1">
         <v>1058.169067</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f>SUM(D49:D53)/5</f>
+        <v>1059.2229735999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -2641,7 +7305,7 @@
         <v>1059.307495</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -2652,7 +7316,7 @@
         <v>1058.661499</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -2663,7 +7327,7 @@
         <v>1060.0708010000001</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
@@ -2674,7 +7338,7 @@
         <v>1059.9060059999999</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -2685,7 +7349,7 @@
         <v>1677.4357910000001</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -2693,34 +7357,50 @@
         <v>3</v>
       </c>
       <c r="D55" s="1">
+        <v>1676.4516599999999</v>
+      </c>
+      <c r="H55" s="5">
         <v>1675.3885499999999</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1">
+        <v>1677.9732670000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1">
+        <v>1676.2811280000001</v>
+      </c>
+      <c r="H57">
+        <f>SUM(D54:D58)/5</f>
+        <v>1677.2411134000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1">
+        <v>1678.063721</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -2731,7 +7411,7 @@
         <v>2658.3466800000001</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -2739,7 +7419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -2747,7 +7427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -2755,7 +7435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>262144</v>
       </c>
@@ -2774,12 +7454,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD9678-EE97-4F1F-9CCB-F22CFD3A5F42}">
-  <dimension ref="B2:G63"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,7 +7867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -3198,39 +7878,55 @@
         <v>2825.0258789999998</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1">
+        <v>2828.8911130000001</v>
+      </c>
+      <c r="H50">
+        <f>SUM(D49:D53)/5</f>
+        <v>2828.5749999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1">
+        <v>2829.0432129999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <v>2828.3552249999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <v>2831.5595699999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -3241,7 +7937,7 @@
         <v>4733.6245120000003</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -3249,7 +7945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
@@ -3257,7 +7953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
@@ -3265,7 +7961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
@@ -3273,7 +7969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -3284,7 +7980,7 @@
         <v>7966.826172</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -3292,7 +7988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -3300,7 +7996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -3308,7 +8004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>262144</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9da5768798d098/Harvard/Sophmore/Spring/A. CS124/CS124-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61244265-EA49-488C-B6EE-CEF41AA47AE0}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65E1592-EB99-43B2-B9D8-4E7DACF73C5D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
   </bookViews>
@@ -171,10 +171,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3854,11 +3854,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -4560,11 +4560,11 @@
     </row>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -5378,7 +5378,7 @@
   <dimension ref="B1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5389,26 +5389,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -5453,7 +5453,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="1">
-        <v>1.2111449999999999</v>
+        <v>1.208828</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -5491,7 +5491,7 @@
         <v>256</v>
       </c>
       <c r="C4" s="1">
-        <v>1.1289899999999999</v>
+        <v>1.1904330000000001</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -5529,7 +5529,7 @@
         <v>512</v>
       </c>
       <c r="C5" s="1">
-        <v>1.2241409999999999</v>
+        <v>1.199451</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -5567,7 +5567,7 @@
         <v>1024</v>
       </c>
       <c r="C6" s="1">
-        <v>1.1588050000000001</v>
+        <v>1.1949650000000001</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -5605,7 +5605,7 @@
         <v>2048</v>
       </c>
       <c r="C7" s="1">
-        <v>1.153518</v>
+        <v>1.2175020000000001</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -5643,7 +5643,7 @@
         <v>4096</v>
       </c>
       <c r="C8" s="1">
-        <v>1.1398200000000001</v>
+        <v>1.2056389999999999</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -5681,7 +5681,7 @@
         <v>8192</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0881730000000001</v>
+        <v>1.20461</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -5719,7 +5719,7 @@
         <v>16384</v>
       </c>
       <c r="C10" s="1">
-        <v>0.96490500000000001</v>
+        <v>1.198474</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -5757,7 +5757,7 @@
         <v>32768</v>
       </c>
       <c r="C11" s="1">
-        <v>0.74632600000000004</v>
+        <v>1.2023790000000001</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -5795,7 +5795,7 @@
         <v>65536</v>
       </c>
       <c r="C12" s="1">
-        <v>0.369251</v>
+        <v>1.20587</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -5831,9 +5831,6 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>131072</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7.7258999999999994E-2</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -5932,11 +5929,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -6775,11 +6772,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -7359,7 +7356,7 @@
       <c r="D55" s="1">
         <v>1676.4516599999999</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>1675.3885499999999</v>
       </c>
     </row>
@@ -7468,11 +7465,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="595" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65E1592-EB99-43B2-B9D8-4E7DACF73C5D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Dim 1" sheetId="2" r:id="rId1"/>
@@ -5378,7 +5378,7 @@
   <dimension ref="B1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb9da5768798d098/Harvard/Sophmore/Spring/A. CS124/CS124-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65E1592-EB99-43B2-B9D8-4E7DACF73C5D}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{1BA6EBC2-B54E-44F0-9434-8F2A8AA229B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F3BB8E-7B1F-4ED7-813D-738F191464E2}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{09920646-C4B9-4870-B214-B70F80188ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Dim 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dim 3" sheetId="3" r:id="rId5"/>
     <sheet name="Dim 4" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,6 +41,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
+    <t>1 Dimension Results</t>
+  </si>
+  <si>
     <t>Num points</t>
   </si>
   <si>
@@ -56,16 +59,16 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2 Dimension Results</t>
+    <t>1 dimension</t>
   </si>
   <si>
-    <t>1 Dimension Results</t>
+    <t>2 dimension</t>
   </si>
   <si>
-    <t>3 Dimension Results</t>
+    <t>3 dimension</t>
   </si>
   <si>
-    <t>4 Dimension Results</t>
+    <t>4 dimension</t>
   </si>
   <si>
     <t>Numpoints</t>
@@ -77,16 +80,13 @@
     <t>Trials</t>
   </si>
   <si>
-    <t>1 dimension</t>
+    <t>2 Dimension Results</t>
   </si>
   <si>
-    <t>2 dimension</t>
+    <t>3 Dimension Results</t>
   </si>
   <si>
-    <t>3 dimension</t>
-  </si>
-  <si>
-    <t>4 dimension</t>
+    <t>4 Dimension Results</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +171,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1441,10 +1441,10 @@
                   <c:v>1687.0836179999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2825.0258789999998</c:v>
+                  <c:v>2827.9746089999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4733.6245120000003</c:v>
+                  <c:v>4736.6019290000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7966.826172</c:v>
@@ -3848,36 +3848,36 @@
       <selection sqref="A1:H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="20.45" thickBot="1">
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickTop="1">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>128</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0.979186</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>128</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0.98504599999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>128</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.99526999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>128</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0.97353999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>128</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0.994232</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>256</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.99056999999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>256</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0.98706000000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>256</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0.99862700000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>256</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0.99862700000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>256</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0.991699</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>512</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0.99633799999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>512</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0.98730399999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>512</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0.99795500000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>512</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0.99795500000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>512</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.99688600000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>1024</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.99874799999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>1024</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.99886799999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>1024</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.99938700000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>1024</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0.99935700000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>1024</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0.99938700000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>2048</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.99898799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>2048</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0.99917199999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>2048</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.99929500000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>2048</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0.99926099999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>2048</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>0.99938499999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>4096</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>4096</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0.99870599999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>4096</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>0.99983599999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>4096</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0.99983599999999995</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4">
       <c r="B33" s="1">
         <v>4096</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0.99986399999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4">
       <c r="B34" s="1">
         <v>8192</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.99989600000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4">
       <c r="B35" s="1">
         <v>8192</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0.99992599999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36" s="1">
         <v>8192</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="1">
         <v>8192</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0.99980899999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4">
       <c r="B38" s="1">
         <v>8192</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0.99980199999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4">
       <c r="B39" s="1">
         <v>16384</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0.99968599999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4">
       <c r="B40" s="1">
         <v>16384</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0.99995400000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4">
       <c r="B41" s="1">
         <v>16384</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>0.99986299999999995</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4">
       <c r="B42" s="1">
         <v>16384</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0.99995599999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4">
       <c r="B43" s="1">
         <v>16384</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0.99992499999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4">
       <c r="B44" s="1">
         <v>32768</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0.99996200000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4">
       <c r="B45" s="1">
         <v>32768</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0.99999199999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4">
       <c r="B46" s="1">
         <v>32768</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0.99995599999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4">
       <c r="B47" s="1">
         <v>32768</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4">
       <c r="B48" s="1">
         <v>32768</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>0.99992800000000004</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.99995999999999996</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0.99995699999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0.99995599999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0.999996</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0.999996</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.99999800000000005</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4">
       <c r="B63" s="1">
         <v>262144</v>
       </c>
@@ -4546,45 +4546,45 @@
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="6" width="17.77734375" customWidth="1"/>
+    <col min="2" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="20.45" thickBot="1">
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickTop="1">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>128</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>128</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>128</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>128</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>128</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>256</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>256</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>256</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>256</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>256</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>512</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>512</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>512</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>512</v>
       </c>
@@ -4766,7 +4766,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>512</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>1024</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>1024</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>1024</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>1024</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>1024</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>2048</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>2048</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>2048</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>2048</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>2048</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>4096</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>4096</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>4096</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>4096</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6">
       <c r="B33" s="1">
         <v>4096</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="B34" s="1">
         <v>8192</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35" s="1">
         <v>8192</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36" s="1">
         <v>8192</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37" s="1">
         <v>8192</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38" s="1">
         <v>8192</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39" s="1">
         <v>16384</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="B40" s="1">
         <v>16384</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41" s="1">
         <v>16384</v>
       </c>
@@ -5079,7 +5079,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42" s="1">
         <v>16384</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43" s="1">
         <v>16384</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44" s="1">
         <v>32768</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="B45" s="1">
         <v>32768</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6">
       <c r="B46" s="1">
         <v>32768</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="B47" s="1">
         <v>32768</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6">
       <c r="B48" s="1">
         <v>32768</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -5322,7 +5322,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6">
       <c r="B63" s="1">
         <v>262144</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5378,77 +5378,77 @@
   <dimension ref="B1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="16" width="12.21875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" ht="20.45" thickBot="1">
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="N1" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15" thickTop="1">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="1">
         <v>128</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16">
       <c r="B4" s="1">
         <v>256</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="1">
         <v>512</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>1024</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>2048</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>4096</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="1">
         <v>8192</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="1">
         <v>16384</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="1">
         <v>32768</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="1">
         <v>65536</v>
       </c>
@@ -5822,16 +5822,19 @@
         <v>65536</v>
       </c>
       <c r="O12" s="1">
-        <v>2825.0258789999998</v>
+        <v>2827.9746089999999</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="1">
         <v>131072</v>
       </c>
+      <c r="C13" s="1">
+        <v>1.202841</v>
+      </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
@@ -5857,16 +5860,22 @@
         <v>131072</v>
       </c>
       <c r="O13" s="1">
-        <v>4733.6245120000003</v>
+        <v>4736.6019290000004</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="1">
         <v>262144</v>
       </c>
+      <c r="C14" s="1">
+        <v>1.2022729999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
       <c r="F14" s="1">
         <v>262144</v>
       </c>
@@ -5874,7 +5883,7 @@
         <v>331.47530133333333</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
         <v>262144</v>
@@ -5883,7 +5892,7 @@
         <v>2658.3466800000001</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" s="1">
         <v>262144</v>
@@ -5892,7 +5901,7 @@
         <v>7966.826172</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5921,39 +5930,39 @@
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="6" width="18.21875" customWidth="1"/>
-    <col min="8" max="12" width="16.6640625" customWidth="1"/>
+    <col min="2" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="20.45" thickBot="1">
       <c r="B1" s="1"/>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15" thickTop="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1">
         <v>128</v>
       </c>
@@ -5966,7 +5975,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>128</v>
       </c>
@@ -5979,7 +5988,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>128</v>
       </c>
@@ -5992,7 +6001,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>128</v>
       </c>
@@ -6005,7 +6014,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>128</v>
       </c>
@@ -6018,7 +6027,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>256</v>
       </c>
@@ -6031,7 +6040,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>256</v>
       </c>
@@ -6044,7 +6053,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>256</v>
       </c>
@@ -6057,7 +6066,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>256</v>
       </c>
@@ -6070,7 +6079,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>256</v>
       </c>
@@ -6083,7 +6092,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>512</v>
       </c>
@@ -6096,7 +6105,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>512</v>
       </c>
@@ -6109,7 +6118,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>512</v>
       </c>
@@ -6122,7 +6131,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>512</v>
       </c>
@@ -6135,7 +6144,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="1">
         <v>512</v>
       </c>
@@ -6148,7 +6157,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="1">
         <v>1024</v>
       </c>
@@ -6161,7 +6170,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="1">
         <v>1024</v>
       </c>
@@ -6174,7 +6183,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="1">
         <v>1024</v>
       </c>
@@ -6187,7 +6196,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="1">
         <v>1024</v>
       </c>
@@ -6200,7 +6209,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="1">
         <v>1024</v>
       </c>
@@ -6213,7 +6222,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="1">
         <v>2048</v>
       </c>
@@ -6226,7 +6235,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="1">
         <v>2048</v>
       </c>
@@ -6239,7 +6248,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="1">
         <v>2048</v>
       </c>
@@ -6252,7 +6261,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="1">
         <v>2048</v>
       </c>
@@ -6265,7 +6274,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="1">
         <v>2048</v>
       </c>
@@ -6278,7 +6287,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28" s="1">
         <v>4096</v>
       </c>
@@ -6291,7 +6300,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="1">
         <v>4096</v>
       </c>
@@ -6304,7 +6313,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30" s="1">
         <v>4096</v>
       </c>
@@ -6317,7 +6326,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="B31" s="1">
         <v>4096</v>
       </c>
@@ -6330,7 +6339,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6">
       <c r="B32" s="1">
         <v>4096</v>
       </c>
@@ -6343,7 +6352,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6">
       <c r="B33" s="1">
         <v>8192</v>
       </c>
@@ -6356,7 +6365,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="B34" s="1">
         <v>8192</v>
       </c>
@@ -6369,7 +6378,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35" s="1">
         <v>8192</v>
       </c>
@@ -6382,7 +6391,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36" s="1">
         <v>8192</v>
       </c>
@@ -6395,7 +6404,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37" s="1">
         <v>8192</v>
       </c>
@@ -6408,7 +6417,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38" s="1">
         <v>16384</v>
       </c>
@@ -6421,7 +6430,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39" s="1">
         <v>16384</v>
       </c>
@@ -6434,7 +6443,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="B40" s="1">
         <v>16384</v>
       </c>
@@ -6447,7 +6456,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41" s="1">
         <v>16384</v>
       </c>
@@ -6462,7 +6471,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42" s="1">
         <v>16384</v>
       </c>
@@ -6475,7 +6484,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43" s="1">
         <v>32768</v>
       </c>
@@ -6488,7 +6497,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44" s="1">
         <v>32768</v>
       </c>
@@ -6501,7 +6510,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="B45" s="1">
         <v>32768</v>
       </c>
@@ -6514,7 +6523,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6">
       <c r="B46" s="1">
         <v>32768</v>
       </c>
@@ -6527,7 +6536,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="B47" s="1">
         <v>32768</v>
       </c>
@@ -6540,7 +6549,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6">
       <c r="B48" s="1">
         <v>65536</v>
       </c>
@@ -6553,7 +6562,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -6566,7 +6575,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -6579,7 +6588,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -6592,7 +6601,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -6605,7 +6614,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" s="1">
         <v>131072</v>
       </c>
@@ -6618,7 +6627,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -6635,7 +6644,7 @@
         <v>234.73711559999998</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -6648,7 +6657,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
@@ -6661,7 +6670,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
@@ -6674,7 +6683,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8">
       <c r="B58" s="1">
         <v>262144</v>
       </c>
@@ -6687,7 +6696,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -6704,7 +6713,7 @@
         <v>331.47530133333333</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -6717,7 +6726,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -6728,7 +6737,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -6739,7 +6748,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6766,36 +6775,36 @@
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="20.45" thickBot="1">
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickTop="1">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>128</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>18.249410999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>128</v>
       </c>
@@ -6817,7 +6826,7 @@
         <v>18.061060000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>128</v>
       </c>
@@ -6828,7 +6837,7 @@
         <v>17.140604</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>128</v>
       </c>
@@ -6839,7 +6848,7 @@
         <v>17.713892000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>128</v>
       </c>
@@ -6850,7 +6859,7 @@
         <v>17.841464999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>256</v>
       </c>
@@ -6861,7 +6870,7 @@
         <v>27.970533</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>256</v>
       </c>
@@ -6872,7 +6881,7 @@
         <v>28.202369999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>256</v>
       </c>
@@ -6883,7 +6892,7 @@
         <v>27.233270999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>256</v>
       </c>
@@ -6894,7 +6903,7 @@
         <v>28.113195000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>256</v>
       </c>
@@ -6905,7 +6914,7 @@
         <v>27.971862999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>512</v>
       </c>
@@ -6916,7 +6925,7 @@
         <v>43.644984999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>512</v>
       </c>
@@ -6927,7 +6936,7 @@
         <v>43.334702</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>512</v>
       </c>
@@ -6938,7 +6947,7 @@
         <v>44.300865000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>512</v>
       </c>
@@ -6949,7 +6958,7 @@
         <v>43.390090999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>512</v>
       </c>
@@ -6960,7 +6969,7 @@
         <v>43.929478000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>1024</v>
       </c>
@@ -6971,7 +6980,7 @@
         <v>68.186286999999993</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>1024</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>68.574462999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>1024</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>68.426040999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>1024</v>
       </c>
@@ -7004,7 +7013,7 @@
         <v>68.279114000000007</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>1024</v>
       </c>
@@ -7015,7 +7024,7 @@
         <v>68.582381999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>2048</v>
       </c>
@@ -7026,7 +7035,7 @@
         <v>106.893394</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>2048</v>
       </c>
@@ -7037,7 +7046,7 @@
         <v>108.016289</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>2048</v>
       </c>
@@ -7048,7 +7057,7 @@
         <v>107.58203899999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>2048</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>107.381989</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>2048</v>
       </c>
@@ -7070,7 +7079,7 @@
         <v>107.161209</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>4096</v>
       </c>
@@ -7082,7 +7091,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>4096</v>
       </c>
@@ -7093,7 +7102,7 @@
         <v>168.54754600000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>4096</v>
       </c>
@@ -7104,7 +7113,7 @@
         <v>168.43019100000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>4096</v>
       </c>
@@ -7115,7 +7124,7 @@
         <v>168.706436</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4">
       <c r="B33" s="1">
         <v>4096</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>169.47470100000001</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4">
       <c r="B34" s="1">
         <v>8192</v>
       </c>
@@ -7137,7 +7146,7 @@
         <v>267.12481700000001</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4">
       <c r="B35" s="1">
         <v>8192</v>
       </c>
@@ -7148,7 +7157,7 @@
         <v>268.20358299999998</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36" s="1">
         <v>8192</v>
       </c>
@@ -7159,7 +7168,7 @@
         <v>267.76400799999999</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="1">
         <v>8192</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>268.29244999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4">
       <c r="B38" s="1">
         <v>8192</v>
       </c>
@@ -7181,7 +7190,7 @@
         <v>267.67666600000001</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4">
       <c r="B39" s="1">
         <v>16384</v>
       </c>
@@ -7192,7 +7201,7 @@
         <v>422.48126200000002</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4">
       <c r="B40" s="1">
         <v>16384</v>
       </c>
@@ -7203,7 +7212,7 @@
         <v>423.23507699999999</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4">
       <c r="B41" s="1">
         <v>16384</v>
       </c>
@@ -7214,7 +7223,7 @@
         <v>421.99588</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4">
       <c r="B42" s="1">
         <v>16384</v>
       </c>
@@ -7225,7 +7234,7 @@
         <v>422.049103</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4">
       <c r="B43" s="1">
         <v>16384</v>
       </c>
@@ -7236,7 +7245,7 @@
         <v>421.62243699999999</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4">
       <c r="B44" s="1">
         <v>32768</v>
       </c>
@@ -7244,7 +7253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4">
       <c r="B45" s="1">
         <v>32768</v>
       </c>
@@ -7252,7 +7261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4">
       <c r="B46" s="1">
         <v>32768</v>
       </c>
@@ -7260,7 +7269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4">
       <c r="B47" s="1">
         <v>32768</v>
       </c>
@@ -7268,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4">
       <c r="B48" s="1">
         <v>32768</v>
       </c>
@@ -7276,7 +7285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -7291,7 +7300,7 @@
         <v>1059.2229735999999</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -7302,7 +7311,7 @@
         <v>1059.307495</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>1058.661499</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>1060.0708010000001</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
@@ -7335,7 +7344,7 @@
         <v>1059.9060059999999</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -7346,7 +7355,7 @@
         <v>1677.4357910000001</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
@@ -7360,7 +7369,7 @@
         <v>1675.3885499999999</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>1677.9732670000001</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
@@ -7386,7 +7395,7 @@
         <v>1677.2411134000001</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
@@ -7397,7 +7406,7 @@
         <v>1678.063721</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -7408,7 +7417,7 @@
         <v>2658.3466800000001</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -7416,7 +7425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -7424,7 +7433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -7432,7 +7441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="1">
         <v>262144</v>
       </c>
@@ -7455,40 +7464,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD9678-EE97-4F1F-9CCB-F22CFD3A5F42}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="20.45" thickBot="1">
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickTop="1">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>128</v>
       </c>
@@ -7499,7 +7508,7 @@
         <v>29.018553000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>128</v>
       </c>
@@ -7507,7 +7516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>128</v>
       </c>
@@ -7515,7 +7524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>128</v>
       </c>
@@ -7523,7 +7532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>128</v>
       </c>
@@ -7531,7 +7540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>256</v>
       </c>
@@ -7539,7 +7548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>256</v>
       </c>
@@ -7547,7 +7556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>256</v>
       </c>
@@ -7555,7 +7564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>256</v>
       </c>
@@ -7563,7 +7572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>256</v>
       </c>
@@ -7571,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>512</v>
       </c>
@@ -7579,7 +7588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>512</v>
       </c>
@@ -7587,7 +7596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>512</v>
       </c>
@@ -7595,7 +7604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>512</v>
       </c>
@@ -7603,7 +7612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>512</v>
       </c>
@@ -7611,7 +7620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>1024</v>
       </c>
@@ -7622,7 +7631,7 @@
         <v>129.459</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>1024</v>
       </c>
@@ -7630,7 +7639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>1024</v>
       </c>
@@ -7638,7 +7647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>1024</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>1024</v>
       </c>
@@ -7654,7 +7663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>2048</v>
       </c>
@@ -7662,7 +7671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>2048</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>2048</v>
       </c>
@@ -7678,7 +7687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="1">
         <v>2048</v>
       </c>
@@ -7686,7 +7695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>2048</v>
       </c>
@@ -7694,7 +7703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>4096</v>
       </c>
@@ -7703,7 +7712,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>4096</v>
       </c>
@@ -7711,7 +7720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>4096</v>
       </c>
@@ -7719,7 +7728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>4096</v>
       </c>
@@ -7727,7 +7736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4">
       <c r="B33" s="1">
         <v>4096</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4">
       <c r="B34" s="1">
         <v>8192</v>
       </c>
@@ -7743,7 +7752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4">
       <c r="B35" s="1">
         <v>8192</v>
       </c>
@@ -7751,7 +7760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4">
       <c r="B36" s="1">
         <v>8192</v>
       </c>
@@ -7759,7 +7768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="1">
         <v>8192</v>
       </c>
@@ -7767,7 +7776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4">
       <c r="B38" s="1">
         <v>8192</v>
       </c>
@@ -7775,7 +7784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4">
       <c r="B39" s="1">
         <v>16384</v>
       </c>
@@ -7783,7 +7792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4">
       <c r="B40" s="1">
         <v>16384</v>
       </c>
@@ -7791,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4">
       <c r="B41" s="1">
         <v>16384</v>
       </c>
@@ -7799,7 +7808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4">
       <c r="B42" s="1">
         <v>16384</v>
       </c>
@@ -7807,7 +7816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4">
       <c r="B43" s="1">
         <v>16384</v>
       </c>
@@ -7815,7 +7824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4">
       <c r="B44" s="1">
         <v>32768</v>
       </c>
@@ -7826,7 +7835,7 @@
         <v>1689.7092290000001</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4">
       <c r="B45" s="1">
         <v>32768</v>
       </c>
@@ -7837,7 +7846,7 @@
         <v>1689.863159</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4">
       <c r="B46" s="1">
         <v>32768</v>
       </c>
@@ -7848,7 +7857,7 @@
         <v>1691.2054439999999</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4">
       <c r="B47" s="1">
         <v>32768</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4">
       <c r="B48" s="1">
         <v>32768</v>
       </c>
@@ -7864,7 +7873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8">
       <c r="B49" s="1">
         <v>65536</v>
       </c>
@@ -7875,7 +7884,7 @@
         <v>2825.0258789999998</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8">
       <c r="B50" s="1">
         <v>65536</v>
       </c>
@@ -7890,7 +7899,7 @@
         <v>2828.5749999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8">
       <c r="B51" s="1">
         <v>65536</v>
       </c>
@@ -7901,7 +7910,7 @@
         <v>2829.0432129999999</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8">
       <c r="B52" s="1">
         <v>65536</v>
       </c>
@@ -7912,7 +7921,7 @@
         <v>2828.3552249999998</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8">
       <c r="B53" s="1">
         <v>65536</v>
       </c>
@@ -7923,7 +7932,7 @@
         <v>2831.5595699999999</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8">
       <c r="B54" s="1">
         <v>131072</v>
       </c>
@@ -7934,31 +7943,44 @@
         <v>4733.6245120000003</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8">
       <c r="B55" s="1">
         <v>131072</v>
       </c>
       <c r="C55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D55" s="1">
+        <v>4739.1850590000004</v>
+      </c>
+      <c r="H55">
+        <f>SUM(D54:D57)/4</f>
+        <v>4736.6019290000004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="1">
         <v>131072</v>
       </c>
       <c r="C56" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D56" s="1">
+        <v>4739.1850590000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="1">
         <v>131072</v>
       </c>
       <c r="C57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D57" s="1">
+        <v>4734.4130859999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="1">
         <v>131072</v>
       </c>
@@ -7966,7 +7988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8">
       <c r="B59" s="1">
         <v>262144</v>
       </c>
@@ -7977,7 +7999,7 @@
         <v>7966.826172</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8">
       <c r="B60" s="1">
         <v>262144</v>
       </c>
@@ -7985,7 +8007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8">
       <c r="B61" s="1">
         <v>262144</v>
       </c>
@@ -7993,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8">
       <c r="B62" s="1">
         <v>262144</v>
       </c>
@@ -8001,7 +8023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="1">
         <v>262144</v>
       </c>
